--- a/Journal de bord MPI.xlsx
+++ b/Journal de bord MPI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpedroletti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.pedroletti\Documents\Nouveau dossier\PreTPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6647C221-5AEE-9542-BF47-0DE7473B999A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50680" yWindow="-10740" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50685" yWindow="-10740" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -100,12 +99,18 @@
   </si>
   <si>
     <t>Réflexion et correction du MCD et MLD</t>
+  </si>
+  <si>
+    <t>Réflexion et correction du MCD</t>
+  </si>
+  <si>
+    <t>Réflexion et correction du MLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
   </numFmts>
@@ -400,7 +405,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -496,13 +501,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F80"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Temps" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description supplémentaire" dataDxfId="0"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Temps" dataDxfId="1"/>
+    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,30 +775,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="74" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -810,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -827,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -844,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -861,7 +866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
@@ -875,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -889,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -903,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
@@ -917,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
@@ -931,7 +936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -945,7 +950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
@@ -959,7 +964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
@@ -973,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
@@ -987,7 +992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1001,397 +1006,417 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44235</v>
+      </c>
+      <c r="E16" s="9">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44235</v>
+      </c>
+      <c r="E17" s="9">
+        <v>30</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44235</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
       <c r="E58" s="9"/>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
       <c r="E60" s="9"/>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
       <c r="E70" s="9"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="13"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>
